--- a/Plan/Table/Live_Data/07.Stage_Table.xlsx
+++ b/Plan/Table/Live_Data/07.Stage_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59EDFC21-4312-4736-B221-FB37635B9BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B6A62E-0352-4391-B7DD-4EBF9F794E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E823C19C-0160-4EB7-B667-23C64162EFD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{75C1B772-F4E9-4AB3-84A3-88CA3972CD15}"/>
   </bookViews>
   <sheets>
     <sheet name="07.Stage_Table" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F00679-E061-4087-8C69-F94EB64CBB2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100DC009-14BD-4FCC-A83F-FA9E3E97C84C}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -608,7 +608,7 @@
         <v>2000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/07.Stage_Table.xlsx
+++ b/Plan/Table/Live_Data/07.Stage_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B6A62E-0352-4391-B7DD-4EBF9F794E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8768AB-9E1E-4C99-B400-A9ABFDFD411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{75C1B772-F4E9-4AB3-84A3-88CA3972CD15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{49CA48B7-A1AE-4117-9A46-08EDA3CBCD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="07.Stage_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>maps_type</t>
   </si>
@@ -44,58 +44,49 @@
     <t>stage_type</t>
   </si>
   <si>
-    <t>min_stage</t>
+    <t>Max_map_line</t>
   </si>
   <si>
     <t>max_stage</t>
   </si>
   <si>
-    <t>remainder_stage</t>
-  </si>
-  <si>
     <t>first_stage_type</t>
   </si>
   <si>
     <t>first_stage_monster_group</t>
   </si>
   <si>
-    <t>normal_monster_group_1</t>
-  </si>
-  <si>
-    <t>normal_monster_group_2</t>
-  </si>
-  <si>
-    <t>normal_monster_group_3</t>
-  </si>
-  <si>
-    <t>normal_monster_group_4</t>
-  </si>
-  <si>
-    <t>normal_monster_group_5</t>
+    <t>normal_monster_group</t>
+  </si>
+  <si>
+    <t>normal_monster_per</t>
+  </si>
+  <si>
+    <t>Elite_monster_group</t>
+  </si>
+  <si>
+    <t>Elite_monster_per</t>
+  </si>
+  <si>
+    <t>Shop_group</t>
+  </si>
+  <si>
+    <t>Shop_per</t>
+  </si>
+  <si>
+    <t>heal_event_id</t>
+  </si>
+  <si>
+    <t>heal_event_per</t>
   </si>
   <si>
     <t>event_maps_group</t>
   </si>
   <si>
+    <t>event_per</t>
+  </si>
+  <si>
     <t>boss_stage_group</t>
-  </si>
-  <si>
-    <t>normal_per_1</t>
-  </si>
-  <si>
-    <t>normal_per_2</t>
-  </si>
-  <si>
-    <t>normal_per_3</t>
-  </si>
-  <si>
-    <t>normal_per_4</t>
-  </si>
-  <si>
-    <t>normal_per_5</t>
-  </si>
-  <si>
-    <t>event_per</t>
   </si>
 </sst>
 </file>
@@ -478,16 +469,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100DC009-14BD-4FCC-A83F-FA9E3E97C84C}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87061BB-47C8-4D38-8B88-3D682DEC4A29}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T1048576"/>
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,17 +531,8 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,52 +546,43 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>5500</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
       <c r="J2">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>99999</v>
+      </c>
+      <c r="N2">
+        <v>500</v>
+      </c>
+      <c r="O2">
         <v>5</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <v>2000</v>
       </c>
       <c r="P2">
         <v>2000</v>
       </c>
       <c r="Q2">
-        <v>2000</v>
-      </c>
-      <c r="R2">
-        <v>2000</v>
-      </c>
-      <c r="S2">
-        <v>2000</v>
-      </c>
-      <c r="T2">
-        <v>10000</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/07.Stage_Table.xlsx
+++ b/Plan/Table/Live_Data/07.Stage_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8768AB-9E1E-4C99-B400-A9ABFDFD411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8BA7552-F25B-4B82-960E-7485606E4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{49CA48B7-A1AE-4117-9A46-08EDA3CBCD2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9AA10C39-5BA0-4728-9DA6-103E948398A2}"/>
   </bookViews>
   <sheets>
     <sheet name="07.Stage_Table" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87061BB-47C8-4D38-8B88-3D682DEC4A29}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1690C-0B1E-4B5E-A857-5FCB5F4F928C}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
